--- a/Logs/P04_scan_log.xlsx
+++ b/Logs/P04_scan_log.xlsx
@@ -387,7 +387,7 @@
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
   </cols>
